--- a/data/zenodo_ivan/import/CHE_imp_gas.xlsx
+++ b/data/zenodo_ivan/import/CHE_imp_gas.xlsx
@@ -28,7 +28,7 @@
     <t>CHE_imp_gas.xlsx</t>
   </si>
   <si>
-    <t>2023-01-05 18:35:30</t>
+    <t>2023-01-06 14:43:57</t>
   </si>
   <si>
     <t>Ivan Ruiz Manuel</t>

--- a/data/zenodo_ivan/import/CHE_imp_gas.xlsx
+++ b/data/zenodo_ivan/import/CHE_imp_gas.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/import/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413700E-243F-9D4E-A0F4-5B7AE627E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38400" yWindow="-2860" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="43">
   <si>
     <t>Name:</t>
   </si>
@@ -106,9 +122,6 @@
     <t>resource</t>
   </si>
   <si>
-    <t>TODO: find</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
@@ -120,12 +133,39 @@
   <si>
     <t>Bundesamt für Energie BFE, Schweizerische Gesamtenergiestatistik 2020</t>
   </si>
+  <si>
+    <t>TJ</t>
+  </si>
+  <si>
+    <t>Statistique globale de l'énergie</t>
+  </si>
+  <si>
+    <t>https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/</t>
+  </si>
+  <si>
+    <t>Net calorific value (approx net = 0.9*gross)</t>
+  </si>
+  <si>
+    <t>TODO: consider finding transport emissions of natural gas.</t>
+  </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Maximum historical import * 1.3</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +177,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,20 +222,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +325,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +377,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +570,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,7 +596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -506,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,12 +645,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -560,16 +661,31 @@
       <c r="F6">
         <v>1990</v>
       </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="H6">
+        <v>68180</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -577,16 +693,31 @@
       <c r="F7">
         <v>1991</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="H7">
+        <v>76580</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -594,16 +725,31 @@
       <c r="F8">
         <v>1992</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="H8">
+        <v>80510</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -611,16 +757,31 @@
       <c r="F9">
         <v>1993</v>
       </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9">
+        <v>84480</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -628,16 +789,31 @@
       <c r="F10">
         <v>1994</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10">
+        <v>83370</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -645,16 +821,31 @@
       <c r="F11">
         <v>1995</v>
       </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11">
+        <v>91920</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -662,16 +853,31 @@
       <c r="F12">
         <v>1996</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12">
+        <v>99500</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -679,16 +885,31 @@
       <c r="F13">
         <v>1997</v>
       </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="H13">
+        <v>96060</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -696,16 +917,31 @@
       <c r="F14">
         <v>1998</v>
       </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14">
+        <v>98880</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -713,16 +949,31 @@
       <c r="F15">
         <v>1999</v>
       </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15">
+        <v>102450</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -730,16 +981,31 @@
       <c r="F16">
         <v>2000</v>
       </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="H16">
+        <v>101880</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -747,16 +1013,31 @@
       <c r="F17">
         <v>2001</v>
       </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17">
+        <v>106040</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -764,16 +1045,31 @@
       <c r="F18">
         <v>2002</v>
       </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>104080</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -781,16 +1077,31 @@
       <c r="F19">
         <v>2003</v>
       </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19">
+        <v>110010</v>
+      </c>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -798,16 +1109,31 @@
       <c r="F20">
         <v>2004</v>
       </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20">
+        <v>113490</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -815,16 +1141,31 @@
       <c r="F21">
         <v>2005</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21">
+        <v>116510</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -832,16 +1173,31 @@
       <c r="F22">
         <v>2006</v>
       </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22">
+        <v>113290</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -849,16 +1205,31 @@
       <c r="F23">
         <v>2007</v>
       </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23">
+        <v>110310</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -866,16 +1237,31 @@
       <c r="F24">
         <v>2008</v>
       </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="H24">
+        <v>117530</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
@@ -883,16 +1269,31 @@
       <c r="F25">
         <v>2009</v>
       </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="H25">
+        <v>112810</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -900,16 +1301,31 @@
       <c r="F26">
         <v>2010</v>
       </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="H26">
+        <v>126010</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -917,16 +1333,31 @@
       <c r="F27">
         <v>2011</v>
       </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="H27">
+        <v>111770</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -934,16 +1365,31 @@
       <c r="F28">
         <v>2012</v>
       </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H28">
+        <v>122520</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
       <c r="D29" t="s">
         <v>21</v>
@@ -951,16 +1397,31 @@
       <c r="F29">
         <v>2013</v>
       </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="H29">
+        <v>129030</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -968,16 +1429,31 @@
       <c r="F30">
         <v>2014</v>
       </c>
-      <c r="H30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30">
+        <v>111770</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -985,16 +1461,31 @@
       <c r="F31">
         <v>2015</v>
       </c>
-      <c r="H31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="H31">
+        <v>119420</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="K31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -1002,16 +1493,31 @@
       <c r="F32">
         <v>2016</v>
       </c>
-      <c r="H32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32">
+        <v>125460</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1019,16 +1525,31 @@
       <c r="F33">
         <v>2017</v>
       </c>
-      <c r="H33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33">
+        <v>125990</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
+      </c>
+      <c r="C34" t="s">
+        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -1036,16 +1557,31 @@
       <c r="F34">
         <v>2018</v>
       </c>
-      <c r="H34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34">
+        <v>119510</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -1053,16 +1589,31 @@
       <c r="F35">
         <v>2019</v>
       </c>
-      <c r="H35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35">
+        <v>122610</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -1070,16 +1621,22 @@
       <c r="F36">
         <v>1990</v>
       </c>
-      <c r="H36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -1087,16 +1644,22 @@
       <c r="F37">
         <v>1991</v>
       </c>
-      <c r="H37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -1104,16 +1667,22 @@
       <c r="F38">
         <v>1992</v>
       </c>
-      <c r="H38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -1121,16 +1690,22 @@
       <c r="F39">
         <v>1993</v>
       </c>
-      <c r="H39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -1138,16 +1713,22 @@
       <c r="F40">
         <v>1994</v>
       </c>
-      <c r="H40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -1155,16 +1736,22 @@
       <c r="F41">
         <v>1995</v>
       </c>
-      <c r="H41" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -1172,16 +1759,22 @@
       <c r="F42">
         <v>1996</v>
       </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -1189,16 +1782,22 @@
       <c r="F43">
         <v>1997</v>
       </c>
-      <c r="H43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -1206,16 +1805,22 @@
       <c r="F44">
         <v>1998</v>
       </c>
-      <c r="H44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -1223,16 +1828,22 @@
       <c r="F45">
         <v>1999</v>
       </c>
-      <c r="H45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -1240,16 +1851,22 @@
       <c r="F46">
         <v>2000</v>
       </c>
-      <c r="H46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -1257,16 +1874,22 @@
       <c r="F47">
         <v>2001</v>
       </c>
-      <c r="H47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -1274,16 +1897,22 @@
       <c r="F48">
         <v>2002</v>
       </c>
-      <c r="H48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -1291,16 +1920,22 @@
       <c r="F49">
         <v>2003</v>
       </c>
-      <c r="H49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -1308,16 +1943,22 @@
       <c r="F50">
         <v>2004</v>
       </c>
-      <c r="H50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -1325,16 +1966,22 @@
       <c r="F51">
         <v>2005</v>
       </c>
-      <c r="H51" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -1342,16 +1989,22 @@
       <c r="F52">
         <v>2006</v>
       </c>
-      <c r="H52" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -1359,16 +2012,22 @@
       <c r="F53">
         <v>2007</v>
       </c>
-      <c r="H53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -1376,16 +2035,22 @@
       <c r="F54">
         <v>2008</v>
       </c>
-      <c r="H54" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -1393,16 +2058,22 @@
       <c r="F55">
         <v>2009</v>
       </c>
-      <c r="H55" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -1410,16 +2081,22 @@
       <c r="F56">
         <v>2010</v>
       </c>
-      <c r="H56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -1427,16 +2104,22 @@
       <c r="F57">
         <v>2011</v>
       </c>
-      <c r="H57" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -1444,16 +2127,22 @@
       <c r="F58">
         <v>2012</v>
       </c>
-      <c r="H58" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -1461,16 +2150,22 @@
       <c r="F59">
         <v>2013</v>
       </c>
-      <c r="H59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -1478,16 +2173,22 @@
       <c r="F60">
         <v>2014</v>
       </c>
-      <c r="H60" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -1495,16 +2196,22 @@
       <c r="F61">
         <v>2015</v>
       </c>
-      <c r="H61" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -1512,16 +2219,22 @@
       <c r="F62">
         <v>2016</v>
       </c>
-      <c r="H62" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -1529,16 +2242,22 @@
       <c r="F63">
         <v>2017</v>
       </c>
-      <c r="H63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
@@ -1546,16 +2265,22 @@
       <c r="F64">
         <v>2018</v>
       </c>
-      <c r="H64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -1563,16 +2288,22 @@
       <c r="F65">
         <v>2019</v>
       </c>
-      <c r="H65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
@@ -1581,24 +2312,27 @@
         <v>1990</v>
       </c>
       <c r="H66">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I66" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" t="s">
         <v>32</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>33</v>
       </c>
-      <c r="K66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
       </c>
       <c r="D67" t="s">
         <v>23</v>
@@ -1607,24 +2341,27 @@
         <v>1991</v>
       </c>
       <c r="H67">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="I67" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" t="s">
         <v>32</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>33</v>
       </c>
-      <c r="K67" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
       <c r="B68" t="s">
         <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>39</v>
       </c>
       <c r="D68" t="s">
         <v>23</v>
@@ -1633,24 +2370,27 @@
         <v>1992</v>
       </c>
       <c r="H68">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
         <v>32</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>33</v>
       </c>
-      <c r="K68" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
       </c>
       <c r="D69" t="s">
         <v>23</v>
@@ -1659,24 +2399,27 @@
         <v>1993</v>
       </c>
       <c r="H69">
-        <v>0.041</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="I69" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" t="s">
         <v>32</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>33</v>
       </c>
-      <c r="K69" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
@@ -1685,24 +2428,27 @@
         <v>1994</v>
       </c>
       <c r="H70">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="I70" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" t="s">
         <v>32</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>33</v>
       </c>
-      <c r="K70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -1711,24 +2457,27 @@
         <v>1995</v>
       </c>
       <c r="H71">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" t="s">
         <v>32</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>33</v>
       </c>
-      <c r="K71" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>39</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -1737,24 +2486,27 @@
         <v>1996</v>
       </c>
       <c r="H72">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I72" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" t="s">
         <v>32</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>33</v>
       </c>
-      <c r="K72" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -1763,24 +2515,27 @@
         <v>1997</v>
       </c>
       <c r="H73">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I73" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" t="s">
         <v>32</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>33</v>
       </c>
-      <c r="K73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>39</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -1789,24 +2544,27 @@
         <v>1998</v>
       </c>
       <c r="H74">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="I74" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
         <v>32</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>33</v>
       </c>
-      <c r="K74" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>39</v>
       </c>
       <c r="D75" t="s">
         <v>23</v>
@@ -1815,24 +2573,27 @@
         <v>1999</v>
       </c>
       <c r="H75">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I75" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" t="s">
         <v>32</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>33</v>
       </c>
-      <c r="K75" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>39</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -1841,24 +2602,27 @@
         <v>2000</v>
       </c>
       <c r="H76">
-        <v>0.036</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="I76" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" t="s">
         <v>32</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>33</v>
       </c>
-      <c r="K76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -1867,24 +2631,27 @@
         <v>2001</v>
       </c>
       <c r="H77">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I77" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" t="s">
         <v>32</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>33</v>
       </c>
-      <c r="K77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -1893,24 +2660,27 @@
         <v>2002</v>
       </c>
       <c r="H78">
-        <v>0.043</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="I78" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" t="s">
         <v>32</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>33</v>
       </c>
-      <c r="K78" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
@@ -1919,24 +2689,27 @@
         <v>2003</v>
       </c>
       <c r="H79">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I79" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" t="s">
         <v>32</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>33</v>
       </c>
-      <c r="K79" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
       </c>
       <c r="D80" t="s">
         <v>23</v>
@@ -1945,24 +2718,27 @@
         <v>2004</v>
       </c>
       <c r="H80">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="I80" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80" t="s">
         <v>32</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>33</v>
       </c>
-      <c r="K80" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>39</v>
       </c>
       <c r="D81" t="s">
         <v>23</v>
@@ -1971,24 +2747,27 @@
         <v>2005</v>
       </c>
       <c r="H81">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="I81" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" t="s">
         <v>32</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>33</v>
       </c>
-      <c r="K81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
       </c>
       <c r="D82" t="s">
         <v>23</v>
@@ -1997,24 +2776,27 @@
         <v>2006</v>
       </c>
       <c r="H82">
-        <v>0.055</v>
+        <v>5.5E-2</v>
       </c>
       <c r="I82" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
         <v>32</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>33</v>
       </c>
-      <c r="K82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
+      </c>
+      <c r="C83" t="s">
+        <v>39</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -2023,24 +2805,27 @@
         <v>2007</v>
       </c>
       <c r="H83">
-        <v>0.059</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="I83" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" t="s">
         <v>32</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>33</v>
       </c>
-      <c r="K83" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
+      </c>
+      <c r="C84" t="s">
+        <v>39</v>
       </c>
       <c r="D84" t="s">
         <v>23</v>
@@ -2049,24 +2834,27 @@
         <v>2008</v>
       </c>
       <c r="H84">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I84" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
         <v>32</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>33</v>
       </c>
-      <c r="K84" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>39</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -2075,24 +2863,27 @@
         <v>2009</v>
       </c>
       <c r="H85">
-        <v>0.064</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="I85" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" t="s">
         <v>32</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>33</v>
       </c>
-      <c r="K85" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
@@ -2101,24 +2892,27 @@
         <v>2010</v>
       </c>
       <c r="H86">
-        <v>0.057</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="I86" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
         <v>32</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>33</v>
       </c>
-      <c r="K86" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
       </c>
       <c r="D87" t="s">
         <v>23</v>
@@ -2127,24 +2921,27 @@
         <v>2011</v>
       </c>
       <c r="H87">
-        <v>0.062</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I87" t="s">
+        <v>31</v>
+      </c>
+      <c r="J87" t="s">
         <v>32</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>33</v>
       </c>
-      <c r="K87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
       </c>
       <c r="D88" t="s">
         <v>23</v>
@@ -2153,24 +2950,27 @@
         <v>2012</v>
       </c>
       <c r="H88">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I88" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" t="s">
         <v>32</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>33</v>
       </c>
-      <c r="K88" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>39</v>
       </c>
       <c r="D89" t="s">
         <v>23</v>
@@ -2179,24 +2979,27 @@
         <v>2013</v>
       </c>
       <c r="H89">
-        <v>0.066</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="I89" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" t="s">
         <v>32</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>33</v>
       </c>
-      <c r="K89" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
@@ -2205,24 +3008,27 @@
         <v>2014</v>
       </c>
       <c r="H90">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" t="s">
         <v>32</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>33</v>
       </c>
-      <c r="K90" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>39</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
@@ -2231,24 +3037,27 @@
         <v>2015</v>
       </c>
       <c r="H91">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I91" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" t="s">
         <v>32</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>33</v>
       </c>
-      <c r="K91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>39</v>
       </c>
       <c r="D92" t="s">
         <v>23</v>
@@ -2257,24 +3066,27 @@
         <v>2016</v>
       </c>
       <c r="H92">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I92" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" t="s">
         <v>32</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>33</v>
       </c>
-      <c r="K92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
+      </c>
+      <c r="C93" t="s">
+        <v>39</v>
       </c>
       <c r="D93" t="s">
         <v>23</v>
@@ -2283,24 +3095,27 @@
         <v>2017</v>
       </c>
       <c r="H93">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="I93" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" t="s">
         <v>32</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>33</v>
       </c>
-      <c r="K93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -2309,24 +3124,27 @@
         <v>2018</v>
       </c>
       <c r="H94">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="I94" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" t="s">
         <v>32</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>33</v>
       </c>
-      <c r="K94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
       <c r="B95" t="s">
         <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
       </c>
       <c r="D95" t="s">
         <v>23</v>
@@ -2335,24 +3153,27 @@
         <v>2019</v>
       </c>
       <c r="H95">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="I95" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" t="s">
         <v>32</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>33</v>
       </c>
-      <c r="K95" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -2364,12 +3185,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>40</v>
       </c>
       <c r="D97" t="s">
         <v>24</v>
@@ -2381,12 +3205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>40</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
@@ -2398,12 +3225,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>40</v>
       </c>
       <c r="D99" t="s">
         <v>24</v>
@@ -2415,12 +3245,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>40</v>
       </c>
       <c r="D100" t="s">
         <v>24</v>
@@ -2432,12 +3265,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>40</v>
       </c>
       <c r="D101" t="s">
         <v>24</v>
@@ -2449,12 +3285,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>40</v>
       </c>
       <c r="D102" t="s">
         <v>24</v>
@@ -2466,12 +3305,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
+      </c>
+      <c r="C103" t="s">
+        <v>40</v>
       </c>
       <c r="D103" t="s">
         <v>24</v>
@@ -2483,12 +3325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
+      </c>
+      <c r="C104" t="s">
+        <v>40</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
@@ -2500,12 +3345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
       </c>
       <c r="D105" t="s">
         <v>24</v>
@@ -2517,12 +3365,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>40</v>
       </c>
       <c r="D106" t="s">
         <v>24</v>
@@ -2534,12 +3385,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>40</v>
       </c>
       <c r="D107" t="s">
         <v>24</v>
@@ -2551,12 +3405,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>40</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -2568,12 +3425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
+      </c>
+      <c r="C109" t="s">
+        <v>40</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -2585,12 +3445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
+      </c>
+      <c r="C110" t="s">
+        <v>40</v>
       </c>
       <c r="D110" t="s">
         <v>24</v>
@@ -2602,12 +3465,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
       <c r="B111" t="s">
         <v>20</v>
+      </c>
+      <c r="C111" t="s">
+        <v>40</v>
       </c>
       <c r="D111" t="s">
         <v>24</v>
@@ -2619,12 +3485,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>40</v>
       </c>
       <c r="D112" t="s">
         <v>24</v>
@@ -2636,12 +3505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
+      </c>
+      <c r="C113" t="s">
+        <v>40</v>
       </c>
       <c r="D113" t="s">
         <v>24</v>
@@ -2653,12 +3525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>40</v>
       </c>
       <c r="D114" t="s">
         <v>24</v>
@@ -2670,12 +3545,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>40</v>
       </c>
       <c r="D115" t="s">
         <v>24</v>
@@ -2687,12 +3565,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>40</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
@@ -2704,12 +3585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
       <c r="B117" t="s">
         <v>20</v>
+      </c>
+      <c r="C117" t="s">
+        <v>40</v>
       </c>
       <c r="D117" t="s">
         <v>24</v>
@@ -2721,12 +3605,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
       <c r="B118" t="s">
         <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>40</v>
       </c>
       <c r="D118" t="s">
         <v>24</v>
@@ -2738,12 +3625,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
       <c r="B119" t="s">
         <v>20</v>
+      </c>
+      <c r="C119" t="s">
+        <v>40</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
@@ -2755,12 +3645,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
       <c r="B120" t="s">
         <v>20</v>
+      </c>
+      <c r="C120" t="s">
+        <v>40</v>
       </c>
       <c r="D120" t="s">
         <v>24</v>
@@ -2772,12 +3665,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
       <c r="B121" t="s">
         <v>20</v>
+      </c>
+      <c r="C121" t="s">
+        <v>40</v>
       </c>
       <c r="D121" t="s">
         <v>24</v>
@@ -2789,12 +3685,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
       <c r="B122" t="s">
         <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>40</v>
       </c>
       <c r="D122" t="s">
         <v>24</v>
@@ -2806,12 +3705,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
       <c r="B123" t="s">
         <v>20</v>
+      </c>
+      <c r="C123" t="s">
+        <v>40</v>
       </c>
       <c r="D123" t="s">
         <v>24</v>
@@ -2823,12 +3725,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>40</v>
       </c>
       <c r="D124" t="s">
         <v>24</v>
@@ -2840,12 +3745,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
       <c r="B125" t="s">
         <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>40</v>
       </c>
       <c r="D125" t="s">
         <v>24</v>
@@ -2857,12 +3765,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>19</v>
       </c>
       <c r="B126" t="s">
         <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>42</v>
       </c>
       <c r="D126" t="s">
         <v>25</v>
@@ -2874,12 +3785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>19</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
+      </c>
+      <c r="C127" t="s">
+        <v>42</v>
       </c>
       <c r="D127" t="s">
         <v>25</v>
@@ -2891,12 +3805,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>19</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>42</v>
       </c>
       <c r="D128" t="s">
         <v>25</v>
@@ -2908,12 +3825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
+      </c>
+      <c r="C129" t="s">
+        <v>42</v>
       </c>
       <c r="D129" t="s">
         <v>25</v>
@@ -2925,12 +3845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>19</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>42</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
@@ -2942,12 +3865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>19</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>42</v>
       </c>
       <c r="D131" t="s">
         <v>25</v>
@@ -2959,12 +3885,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>19</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
+      </c>
+      <c r="C132" t="s">
+        <v>42</v>
       </c>
       <c r="D132" t="s">
         <v>25</v>
@@ -2976,12 +3905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>19</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
+      </c>
+      <c r="C133" t="s">
+        <v>42</v>
       </c>
       <c r="D133" t="s">
         <v>25</v>
@@ -2993,12 +3925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>19</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
+      </c>
+      <c r="C134" t="s">
+        <v>42</v>
       </c>
       <c r="D134" t="s">
         <v>25</v>
@@ -3010,12 +3945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>19</v>
       </c>
       <c r="B135" t="s">
         <v>20</v>
+      </c>
+      <c r="C135" t="s">
+        <v>42</v>
       </c>
       <c r="D135" t="s">
         <v>25</v>
@@ -3027,12 +3965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>19</v>
       </c>
       <c r="B136" t="s">
         <v>20</v>
+      </c>
+      <c r="C136" t="s">
+        <v>42</v>
       </c>
       <c r="D136" t="s">
         <v>25</v>
@@ -3044,12 +3985,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
+      </c>
+      <c r="C137" t="s">
+        <v>42</v>
       </c>
       <c r="D137" t="s">
         <v>25</v>
@@ -3061,12 +4005,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
       <c r="B138" t="s">
         <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>42</v>
       </c>
       <c r="D138" t="s">
         <v>25</v>
@@ -3078,12 +4025,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>19</v>
       </c>
       <c r="B139" t="s">
         <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>42</v>
       </c>
       <c r="D139" t="s">
         <v>25</v>
@@ -3095,12 +4045,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>19</v>
       </c>
       <c r="B140" t="s">
         <v>20</v>
+      </c>
+      <c r="C140" t="s">
+        <v>42</v>
       </c>
       <c r="D140" t="s">
         <v>25</v>
@@ -3112,12 +4065,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>19</v>
       </c>
       <c r="B141" t="s">
         <v>20</v>
+      </c>
+      <c r="C141" t="s">
+        <v>42</v>
       </c>
       <c r="D141" t="s">
         <v>25</v>
@@ -3129,12 +4085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>19</v>
       </c>
       <c r="B142" t="s">
         <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>42</v>
       </c>
       <c r="D142" t="s">
         <v>25</v>
@@ -3146,12 +4105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>19</v>
       </c>
       <c r="B143" t="s">
         <v>20</v>
+      </c>
+      <c r="C143" t="s">
+        <v>42</v>
       </c>
       <c r="D143" t="s">
         <v>25</v>
@@ -3163,12 +4125,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
       <c r="B144" t="s">
         <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>42</v>
       </c>
       <c r="D144" t="s">
         <v>25</v>
@@ -3180,12 +4145,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>42</v>
       </c>
       <c r="D145" t="s">
         <v>25</v>
@@ -3197,12 +4165,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>19</v>
       </c>
       <c r="B146" t="s">
         <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>42</v>
       </c>
       <c r="D146" t="s">
         <v>25</v>
@@ -3214,12 +4185,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>19</v>
       </c>
       <c r="B147" t="s">
         <v>20</v>
+      </c>
+      <c r="C147" t="s">
+        <v>42</v>
       </c>
       <c r="D147" t="s">
         <v>25</v>
@@ -3231,12 +4205,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>19</v>
       </c>
       <c r="B148" t="s">
         <v>20</v>
+      </c>
+      <c r="C148" t="s">
+        <v>42</v>
       </c>
       <c r="D148" t="s">
         <v>25</v>
@@ -3248,12 +4225,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
       <c r="B149" t="s">
         <v>20</v>
+      </c>
+      <c r="C149" t="s">
+        <v>42</v>
       </c>
       <c r="D149" t="s">
         <v>25</v>
@@ -3265,12 +4245,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>19</v>
       </c>
       <c r="B150" t="s">
         <v>20</v>
+      </c>
+      <c r="C150" t="s">
+        <v>42</v>
       </c>
       <c r="D150" t="s">
         <v>25</v>
@@ -3282,12 +4265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
       <c r="B151" t="s">
         <v>20</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
       </c>
       <c r="D151" t="s">
         <v>25</v>
@@ -3299,12 +4285,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>19</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
+      </c>
+      <c r="C152" t="s">
+        <v>42</v>
       </c>
       <c r="D152" t="s">
         <v>25</v>
@@ -3316,12 +4305,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>19</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
+      </c>
+      <c r="C153" t="s">
+        <v>42</v>
       </c>
       <c r="D153" t="s">
         <v>25</v>
@@ -3333,12 +4325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>19</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
+      </c>
+      <c r="C154" t="s">
+        <v>42</v>
       </c>
       <c r="D154" t="s">
         <v>25</v>
@@ -3350,12 +4345,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>19</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
+      </c>
+      <c r="C155" t="s">
+        <v>42</v>
       </c>
       <c r="D155" t="s">
         <v>25</v>
@@ -3367,12 +4365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>19</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
+      </c>
+      <c r="C156" t="s">
+        <v>42</v>
       </c>
       <c r="D156" t="s">
         <v>26</v>
@@ -3384,12 +4385,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>19</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
       </c>
       <c r="D157" t="s">
         <v>26</v>
@@ -3401,12 +4405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>19</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
       </c>
       <c r="D158" t="s">
         <v>26</v>
@@ -3418,12 +4425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>19</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>42</v>
       </c>
       <c r="D159" t="s">
         <v>26</v>
@@ -3435,12 +4445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>42</v>
       </c>
       <c r="D160" t="s">
         <v>26</v>
@@ -3452,12 +4465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>42</v>
       </c>
       <c r="D161" t="s">
         <v>26</v>
@@ -3469,12 +4485,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
       <c r="B162" t="s">
         <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>42</v>
       </c>
       <c r="D162" t="s">
         <v>26</v>
@@ -3486,12 +4505,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
       <c r="B163" t="s">
         <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>42</v>
       </c>
       <c r="D163" t="s">
         <v>26</v>
@@ -3503,12 +4525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
       </c>
       <c r="D164" t="s">
         <v>26</v>
@@ -3520,12 +4545,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
       <c r="B165" t="s">
         <v>20</v>
+      </c>
+      <c r="C165" t="s">
+        <v>42</v>
       </c>
       <c r="D165" t="s">
         <v>26</v>
@@ -3537,12 +4565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>19</v>
       </c>
       <c r="B166" t="s">
         <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>42</v>
       </c>
       <c r="D166" t="s">
         <v>26</v>
@@ -3554,12 +4585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
       <c r="B167" t="s">
         <v>20</v>
+      </c>
+      <c r="C167" t="s">
+        <v>42</v>
       </c>
       <c r="D167" t="s">
         <v>26</v>
@@ -3571,12 +4605,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
       <c r="B168" t="s">
         <v>20</v>
+      </c>
+      <c r="C168" t="s">
+        <v>42</v>
       </c>
       <c r="D168" t="s">
         <v>26</v>
@@ -3588,12 +4625,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
       <c r="B169" t="s">
         <v>20</v>
+      </c>
+      <c r="C169" t="s">
+        <v>42</v>
       </c>
       <c r="D169" t="s">
         <v>26</v>
@@ -3605,12 +4645,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>19</v>
       </c>
       <c r="B170" t="s">
         <v>20</v>
+      </c>
+      <c r="C170" t="s">
+        <v>42</v>
       </c>
       <c r="D170" t="s">
         <v>26</v>
@@ -3622,12 +4665,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
       <c r="B171" t="s">
         <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>42</v>
       </c>
       <c r="D171" t="s">
         <v>26</v>
@@ -3639,12 +4685,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>19</v>
       </c>
       <c r="B172" t="s">
         <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>42</v>
       </c>
       <c r="D172" t="s">
         <v>26</v>
@@ -3656,12 +4705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>19</v>
       </c>
       <c r="B173" t="s">
         <v>20</v>
+      </c>
+      <c r="C173" t="s">
+        <v>42</v>
       </c>
       <c r="D173" t="s">
         <v>26</v>
@@ -3673,12 +4725,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>19</v>
       </c>
       <c r="B174" t="s">
         <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>42</v>
       </c>
       <c r="D174" t="s">
         <v>26</v>
@@ -3690,12 +4745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>42</v>
       </c>
       <c r="D175" t="s">
         <v>26</v>
@@ -3707,12 +4765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
       <c r="B176" t="s">
         <v>20</v>
+      </c>
+      <c r="C176" t="s">
+        <v>42</v>
       </c>
       <c r="D176" t="s">
         <v>26</v>
@@ -3724,12 +4785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
       <c r="B177" t="s">
         <v>20</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
       </c>
       <c r="D177" t="s">
         <v>26</v>
@@ -3741,12 +4805,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>19</v>
       </c>
       <c r="B178" t="s">
         <v>20</v>
+      </c>
+      <c r="C178" t="s">
+        <v>42</v>
       </c>
       <c r="D178" t="s">
         <v>26</v>
@@ -3758,12 +4825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
+      </c>
+      <c r="C179" t="s">
+        <v>42</v>
       </c>
       <c r="D179" t="s">
         <v>26</v>
@@ -3775,12 +4845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>19</v>
       </c>
       <c r="B180" t="s">
         <v>20</v>
+      </c>
+      <c r="C180" t="s">
+        <v>42</v>
       </c>
       <c r="D180" t="s">
         <v>26</v>
@@ -3792,12 +4865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>19</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
+      </c>
+      <c r="C181" t="s">
+        <v>42</v>
       </c>
       <c r="D181" t="s">
         <v>26</v>
@@ -3809,12 +4885,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>19</v>
       </c>
       <c r="B182" t="s">
         <v>20</v>
+      </c>
+      <c r="C182" t="s">
+        <v>42</v>
       </c>
       <c r="D182" t="s">
         <v>26</v>
@@ -3826,12 +4905,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>19</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
+      </c>
+      <c r="C183" t="s">
+        <v>42</v>
       </c>
       <c r="D183" t="s">
         <v>26</v>
@@ -3843,12 +4925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>19</v>
       </c>
       <c r="B184" t="s">
         <v>20</v>
+      </c>
+      <c r="C184" t="s">
+        <v>42</v>
       </c>
       <c r="D184" t="s">
         <v>26</v>
@@ -3860,12 +4945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>19</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
       </c>
       <c r="D185" t="s">
         <v>26</v>
@@ -3877,12 +4965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>19</v>
       </c>
       <c r="B186" t="s">
         <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>42</v>
       </c>
       <c r="D186" t="s">
         <v>27</v>
@@ -3894,12 +4985,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>19</v>
       </c>
       <c r="B187" t="s">
         <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>42</v>
       </c>
       <c r="D187" t="s">
         <v>27</v>
@@ -3911,12 +5005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
       <c r="B188" t="s">
         <v>20</v>
+      </c>
+      <c r="C188" t="s">
+        <v>42</v>
       </c>
       <c r="D188" t="s">
         <v>27</v>
@@ -3928,12 +5025,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>19</v>
       </c>
       <c r="B189" t="s">
         <v>20</v>
+      </c>
+      <c r="C189" t="s">
+        <v>42</v>
       </c>
       <c r="D189" t="s">
         <v>27</v>
@@ -3945,12 +5045,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>19</v>
       </c>
       <c r="B190" t="s">
         <v>20</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
       </c>
       <c r="D190" t="s">
         <v>27</v>
@@ -3962,12 +5065,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>19</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
+      </c>
+      <c r="C191" t="s">
+        <v>42</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
@@ -3979,12 +5085,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>19</v>
       </c>
       <c r="B192" t="s">
         <v>20</v>
+      </c>
+      <c r="C192" t="s">
+        <v>42</v>
       </c>
       <c r="D192" t="s">
         <v>27</v>
@@ -3996,12 +5105,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>19</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
+      </c>
+      <c r="C193" t="s">
+        <v>42</v>
       </c>
       <c r="D193" t="s">
         <v>27</v>
@@ -4013,12 +5125,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>19</v>
       </c>
       <c r="B194" t="s">
         <v>20</v>
+      </c>
+      <c r="C194" t="s">
+        <v>42</v>
       </c>
       <c r="D194" t="s">
         <v>27</v>
@@ -4030,12 +5145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>19</v>
       </c>
       <c r="B195" t="s">
         <v>20</v>
+      </c>
+      <c r="C195" t="s">
+        <v>42</v>
       </c>
       <c r="D195" t="s">
         <v>27</v>
@@ -4047,12 +5165,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>19</v>
       </c>
       <c r="B196" t="s">
         <v>20</v>
+      </c>
+      <c r="C196" t="s">
+        <v>42</v>
       </c>
       <c r="D196" t="s">
         <v>27</v>
@@ -4064,12 +5185,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>19</v>
       </c>
       <c r="B197" t="s">
         <v>20</v>
+      </c>
+      <c r="C197" t="s">
+        <v>42</v>
       </c>
       <c r="D197" t="s">
         <v>27</v>
@@ -4081,12 +5205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>19</v>
       </c>
       <c r="B198" t="s">
         <v>20</v>
+      </c>
+      <c r="C198" t="s">
+        <v>42</v>
       </c>
       <c r="D198" t="s">
         <v>27</v>
@@ -4098,12 +5225,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>19</v>
       </c>
       <c r="B199" t="s">
         <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>42</v>
       </c>
       <c r="D199" t="s">
         <v>27</v>
@@ -4115,12 +5245,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>19</v>
       </c>
       <c r="B200" t="s">
         <v>20</v>
+      </c>
+      <c r="C200" t="s">
+        <v>42</v>
       </c>
       <c r="D200" t="s">
         <v>27</v>
@@ -4132,12 +5265,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>19</v>
       </c>
       <c r="B201" t="s">
         <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>42</v>
       </c>
       <c r="D201" t="s">
         <v>27</v>
@@ -4149,12 +5285,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>19</v>
       </c>
       <c r="B202" t="s">
         <v>20</v>
+      </c>
+      <c r="C202" t="s">
+        <v>42</v>
       </c>
       <c r="D202" t="s">
         <v>27</v>
@@ -4166,12 +5305,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>19</v>
       </c>
       <c r="B203" t="s">
         <v>20</v>
+      </c>
+      <c r="C203" t="s">
+        <v>42</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
@@ -4183,12 +5325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>19</v>
       </c>
       <c r="B204" t="s">
         <v>20</v>
+      </c>
+      <c r="C204" t="s">
+        <v>42</v>
       </c>
       <c r="D204" t="s">
         <v>27</v>
@@ -4200,12 +5345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>42</v>
       </c>
       <c r="D205" t="s">
         <v>27</v>
@@ -4217,12 +5365,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>19</v>
       </c>
       <c r="B206" t="s">
         <v>20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>42</v>
       </c>
       <c r="D206" t="s">
         <v>27</v>
@@ -4234,12 +5385,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>19</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
+      </c>
+      <c r="C207" t="s">
+        <v>42</v>
       </c>
       <c r="D207" t="s">
         <v>27</v>
@@ -4251,12 +5405,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>19</v>
       </c>
       <c r="B208" t="s">
         <v>20</v>
+      </c>
+      <c r="C208" t="s">
+        <v>42</v>
       </c>
       <c r="D208" t="s">
         <v>27</v>
@@ -4268,12 +5425,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
+      </c>
+      <c r="C209" t="s">
+        <v>42</v>
       </c>
       <c r="D209" t="s">
         <v>27</v>
@@ -4285,12 +5445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>19</v>
       </c>
       <c r="B210" t="s">
         <v>20</v>
+      </c>
+      <c r="C210" t="s">
+        <v>42</v>
       </c>
       <c r="D210" t="s">
         <v>27</v>
@@ -4302,12 +5465,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
       <c r="B211" t="s">
         <v>20</v>
+      </c>
+      <c r="C211" t="s">
+        <v>42</v>
       </c>
       <c r="D211" t="s">
         <v>27</v>
@@ -4319,12 +5485,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
+      </c>
+      <c r="C212" t="s">
+        <v>42</v>
       </c>
       <c r="D212" t="s">
         <v>27</v>
@@ -4336,12 +5505,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
+      </c>
+      <c r="C213" t="s">
+        <v>42</v>
       </c>
       <c r="D213" t="s">
         <v>27</v>
@@ -4353,12 +5525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>19</v>
       </c>
       <c r="B214" t="s">
         <v>20</v>
+      </c>
+      <c r="C214" t="s">
+        <v>42</v>
       </c>
       <c r="D214" t="s">
         <v>27</v>
@@ -4370,12 +5545,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
       <c r="B215" t="s">
         <v>20</v>
+      </c>
+      <c r="C215" t="s">
+        <v>42</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
@@ -4387,12 +5565,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>19</v>
       </c>
       <c r="B216" t="s">
         <v>20</v>
+      </c>
+      <c r="C216" t="s">
+        <v>40</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
@@ -4400,16 +5581,27 @@
       <c r="F216">
         <v>1990</v>
       </c>
-      <c r="H216" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="H216">
+        <f>MAX(H$6:H$35)*1.3</f>
+        <v>167739</v>
+      </c>
+      <c r="I216" t="str">
+        <f>I6</f>
+        <v>TJ</v>
+      </c>
+      <c r="M216" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>19</v>
       </c>
       <c r="B217" t="s">
         <v>20</v>
+      </c>
+      <c r="C217" t="s">
+        <v>40</v>
       </c>
       <c r="D217" t="s">
         <v>28</v>
@@ -4417,16 +5609,27 @@
       <c r="F217">
         <v>1991</v>
       </c>
-      <c r="H217" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="H217">
+        <f t="shared" ref="H217:H245" si="0">MAX(H$6:H$35)*1.3</f>
+        <v>167739</v>
+      </c>
+      <c r="I217" t="str">
+        <f t="shared" ref="I217:I245" si="1">I7</f>
+        <v>TJ</v>
+      </c>
+      <c r="M217" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
       <c r="B218" t="s">
         <v>20</v>
+      </c>
+      <c r="C218" t="s">
+        <v>40</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
@@ -4434,16 +5637,27 @@
       <c r="F218">
         <v>1992</v>
       </c>
-      <c r="H218" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="H218">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I218" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M218" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>19</v>
       </c>
       <c r="B219" t="s">
         <v>20</v>
+      </c>
+      <c r="C219" t="s">
+        <v>40</v>
       </c>
       <c r="D219" t="s">
         <v>28</v>
@@ -4451,16 +5665,27 @@
       <c r="F219">
         <v>1993</v>
       </c>
-      <c r="H219" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="H219">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I219" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M219" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>19</v>
       </c>
       <c r="B220" t="s">
         <v>20</v>
+      </c>
+      <c r="C220" t="s">
+        <v>40</v>
       </c>
       <c r="D220" t="s">
         <v>28</v>
@@ -4468,16 +5693,27 @@
       <c r="F220">
         <v>1994</v>
       </c>
-      <c r="H220" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="H220">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I220" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M220" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>19</v>
       </c>
       <c r="B221" t="s">
         <v>20</v>
+      </c>
+      <c r="C221" t="s">
+        <v>40</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
@@ -4485,16 +5721,27 @@
       <c r="F221">
         <v>1995</v>
       </c>
-      <c r="H221" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="H221">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I221" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M221" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>19</v>
       </c>
       <c r="B222" t="s">
         <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>40</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
@@ -4502,16 +5749,27 @@
       <c r="F222">
         <v>1996</v>
       </c>
-      <c r="H222" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="H222">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I222" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M222" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>19</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
+      </c>
+      <c r="C223" t="s">
+        <v>40</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
@@ -4519,16 +5777,27 @@
       <c r="F223">
         <v>1997</v>
       </c>
-      <c r="H223" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="H223">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I223" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M223" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
       <c r="B224" t="s">
         <v>20</v>
+      </c>
+      <c r="C224" t="s">
+        <v>40</v>
       </c>
       <c r="D224" t="s">
         <v>28</v>
@@ -4536,16 +5805,27 @@
       <c r="F224">
         <v>1998</v>
       </c>
-      <c r="H224" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="H224">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I224" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M224" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>19</v>
       </c>
       <c r="B225" t="s">
         <v>20</v>
+      </c>
+      <c r="C225" t="s">
+        <v>40</v>
       </c>
       <c r="D225" t="s">
         <v>28</v>
@@ -4553,16 +5833,27 @@
       <c r="F225">
         <v>1999</v>
       </c>
-      <c r="H225" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="H225">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I225" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M225" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
       <c r="B226" t="s">
         <v>20</v>
+      </c>
+      <c r="C226" t="s">
+        <v>40</v>
       </c>
       <c r="D226" t="s">
         <v>28</v>
@@ -4570,16 +5861,27 @@
       <c r="F226">
         <v>2000</v>
       </c>
-      <c r="H226" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="H226">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I226" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M226" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
       <c r="B227" t="s">
         <v>20</v>
+      </c>
+      <c r="C227" t="s">
+        <v>40</v>
       </c>
       <c r="D227" t="s">
         <v>28</v>
@@ -4587,16 +5889,27 @@
       <c r="F227">
         <v>2001</v>
       </c>
-      <c r="H227" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="H227">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I227" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M227" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
       <c r="B228" t="s">
         <v>20</v>
+      </c>
+      <c r="C228" t="s">
+        <v>40</v>
       </c>
       <c r="D228" t="s">
         <v>28</v>
@@ -4604,16 +5917,27 @@
       <c r="F228">
         <v>2002</v>
       </c>
-      <c r="H228" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="H228">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I228" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M228" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
       <c r="B229" t="s">
         <v>20</v>
+      </c>
+      <c r="C229" t="s">
+        <v>40</v>
       </c>
       <c r="D229" t="s">
         <v>28</v>
@@ -4621,16 +5945,27 @@
       <c r="F229">
         <v>2003</v>
       </c>
-      <c r="H229" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="H229">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I229" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M229" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>19</v>
       </c>
       <c r="B230" t="s">
         <v>20</v>
+      </c>
+      <c r="C230" t="s">
+        <v>40</v>
       </c>
       <c r="D230" t="s">
         <v>28</v>
@@ -4638,16 +5973,27 @@
       <c r="F230">
         <v>2004</v>
       </c>
-      <c r="H230" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="H230">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I230" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M230" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>19</v>
       </c>
       <c r="B231" t="s">
         <v>20</v>
+      </c>
+      <c r="C231" t="s">
+        <v>40</v>
       </c>
       <c r="D231" t="s">
         <v>28</v>
@@ -4655,16 +6001,27 @@
       <c r="F231">
         <v>2005</v>
       </c>
-      <c r="H231" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="H231">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I231" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M231" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>19</v>
       </c>
       <c r="B232" t="s">
         <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>40</v>
       </c>
       <c r="D232" t="s">
         <v>28</v>
@@ -4672,16 +6029,27 @@
       <c r="F232">
         <v>2006</v>
       </c>
-      <c r="H232" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="H232">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I232" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M232" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>19</v>
       </c>
       <c r="B233" t="s">
         <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>40</v>
       </c>
       <c r="D233" t="s">
         <v>28</v>
@@ -4689,16 +6057,27 @@
       <c r="F233">
         <v>2007</v>
       </c>
-      <c r="H233" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="H233">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I233" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M233" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>19</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>40</v>
       </c>
       <c r="D234" t="s">
         <v>28</v>
@@ -4706,16 +6085,27 @@
       <c r="F234">
         <v>2008</v>
       </c>
-      <c r="H234" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="H234">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I234" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M234" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>19</v>
       </c>
       <c r="B235" t="s">
         <v>20</v>
+      </c>
+      <c r="C235" t="s">
+        <v>40</v>
       </c>
       <c r="D235" t="s">
         <v>28</v>
@@ -4723,16 +6113,27 @@
       <c r="F235">
         <v>2009</v>
       </c>
-      <c r="H235" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="H235">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I235" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M235" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
       <c r="B236" t="s">
         <v>20</v>
+      </c>
+      <c r="C236" t="s">
+        <v>40</v>
       </c>
       <c r="D236" t="s">
         <v>28</v>
@@ -4740,16 +6141,27 @@
       <c r="F236">
         <v>2010</v>
       </c>
-      <c r="H236" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="H236">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I236" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M236" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>19</v>
       </c>
       <c r="B237" t="s">
         <v>20</v>
+      </c>
+      <c r="C237" t="s">
+        <v>40</v>
       </c>
       <c r="D237" t="s">
         <v>28</v>
@@ -4757,16 +6169,27 @@
       <c r="F237">
         <v>2011</v>
       </c>
-      <c r="H237" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="H237">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I237" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M237" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>19</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
+      </c>
+      <c r="C238" t="s">
+        <v>40</v>
       </c>
       <c r="D238" t="s">
         <v>28</v>
@@ -4774,16 +6197,27 @@
       <c r="F238">
         <v>2012</v>
       </c>
-      <c r="H238" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="H238">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I238" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M238" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>19</v>
       </c>
       <c r="B239" t="s">
         <v>20</v>
+      </c>
+      <c r="C239" t="s">
+        <v>40</v>
       </c>
       <c r="D239" t="s">
         <v>28</v>
@@ -4791,16 +6225,27 @@
       <c r="F239">
         <v>2013</v>
       </c>
-      <c r="H239" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="H239">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I239" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M239" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>19</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
+      </c>
+      <c r="C240" t="s">
+        <v>40</v>
       </c>
       <c r="D240" t="s">
         <v>28</v>
@@ -4808,16 +6253,27 @@
       <c r="F240">
         <v>2014</v>
       </c>
-      <c r="H240" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="H240">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I240" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M240" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>19</v>
       </c>
       <c r="B241" t="s">
         <v>20</v>
+      </c>
+      <c r="C241" t="s">
+        <v>40</v>
       </c>
       <c r="D241" t="s">
         <v>28</v>
@@ -4825,16 +6281,27 @@
       <c r="F241">
         <v>2015</v>
       </c>
-      <c r="H241" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="H241">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I241" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M241" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>19</v>
       </c>
       <c r="B242" t="s">
         <v>20</v>
+      </c>
+      <c r="C242" t="s">
+        <v>40</v>
       </c>
       <c r="D242" t="s">
         <v>28</v>
@@ -4842,16 +6309,27 @@
       <c r="F242">
         <v>2016</v>
       </c>
-      <c r="H242" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="H242">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I242" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M242" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>19</v>
       </c>
       <c r="B243" t="s">
         <v>20</v>
+      </c>
+      <c r="C243" t="s">
+        <v>40</v>
       </c>
       <c r="D243" t="s">
         <v>28</v>
@@ -4859,16 +6337,27 @@
       <c r="F243">
         <v>2017</v>
       </c>
-      <c r="H243" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="H243">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I243" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M243" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>19</v>
       </c>
       <c r="B244" t="s">
         <v>20</v>
+      </c>
+      <c r="C244" t="s">
+        <v>40</v>
       </c>
       <c r="D244" t="s">
         <v>28</v>
@@ -4876,16 +6365,27 @@
       <c r="F244">
         <v>2018</v>
       </c>
-      <c r="H244" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="H244">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I244" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M244" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>19</v>
       </c>
       <c r="B245" t="s">
         <v>20</v>
+      </c>
+      <c r="C245" t="s">
+        <v>40</v>
       </c>
       <c r="D245" t="s">
         <v>28</v>
@@ -4893,16 +6393,27 @@
       <c r="F245">
         <v>2019</v>
       </c>
-      <c r="H245" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="H245">
+        <f t="shared" si="0"/>
+        <v>167739</v>
+      </c>
+      <c r="I245" t="str">
+        <f t="shared" si="1"/>
+        <v>TJ</v>
+      </c>
+      <c r="M245" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>19</v>
       </c>
       <c r="B246" t="s">
         <v>20</v>
+      </c>
+      <c r="C246" t="s">
+        <v>42</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
@@ -4911,15 +6422,18 @@
         <v>1990</v>
       </c>
       <c r="H246" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>19</v>
       </c>
       <c r="B247" t="s">
         <v>20</v>
+      </c>
+      <c r="C247" t="s">
+        <v>42</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
@@ -4928,15 +6442,18 @@
         <v>1991</v>
       </c>
       <c r="H247" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>19</v>
       </c>
       <c r="B248" t="s">
         <v>20</v>
+      </c>
+      <c r="C248" t="s">
+        <v>42</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
@@ -4945,15 +6462,18 @@
         <v>1992</v>
       </c>
       <c r="H248" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>19</v>
       </c>
       <c r="B249" t="s">
         <v>20</v>
+      </c>
+      <c r="C249" t="s">
+        <v>42</v>
       </c>
       <c r="D249" t="s">
         <v>29</v>
@@ -4962,15 +6482,18 @@
         <v>1993</v>
       </c>
       <c r="H249" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>19</v>
       </c>
       <c r="B250" t="s">
         <v>20</v>
+      </c>
+      <c r="C250" t="s">
+        <v>42</v>
       </c>
       <c r="D250" t="s">
         <v>29</v>
@@ -4979,15 +6502,18 @@
         <v>1994</v>
       </c>
       <c r="H250" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>19</v>
       </c>
       <c r="B251" t="s">
         <v>20</v>
+      </c>
+      <c r="C251" t="s">
+        <v>42</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
@@ -4996,15 +6522,18 @@
         <v>1995</v>
       </c>
       <c r="H251" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>19</v>
       </c>
       <c r="B252" t="s">
         <v>20</v>
+      </c>
+      <c r="C252" t="s">
+        <v>42</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
@@ -5013,15 +6542,18 @@
         <v>1996</v>
       </c>
       <c r="H252" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>19</v>
       </c>
       <c r="B253" t="s">
         <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>42</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
@@ -5030,15 +6562,18 @@
         <v>1997</v>
       </c>
       <c r="H253" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
       <c r="B254" t="s">
         <v>20</v>
+      </c>
+      <c r="C254" t="s">
+        <v>42</v>
       </c>
       <c r="D254" t="s">
         <v>29</v>
@@ -5047,15 +6582,18 @@
         <v>1998</v>
       </c>
       <c r="H254" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>19</v>
       </c>
       <c r="B255" t="s">
         <v>20</v>
+      </c>
+      <c r="C255" t="s">
+        <v>42</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
@@ -5064,15 +6602,18 @@
         <v>1999</v>
       </c>
       <c r="H255" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>19</v>
       </c>
       <c r="B256" t="s">
         <v>20</v>
+      </c>
+      <c r="C256" t="s">
+        <v>42</v>
       </c>
       <c r="D256" t="s">
         <v>29</v>
@@ -5081,15 +6622,18 @@
         <v>2000</v>
       </c>
       <c r="H256" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>19</v>
       </c>
       <c r="B257" t="s">
         <v>20</v>
+      </c>
+      <c r="C257" t="s">
+        <v>42</v>
       </c>
       <c r="D257" t="s">
         <v>29</v>
@@ -5098,15 +6642,18 @@
         <v>2001</v>
       </c>
       <c r="H257" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>19</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
+      </c>
+      <c r="C258" t="s">
+        <v>42</v>
       </c>
       <c r="D258" t="s">
         <v>29</v>
@@ -5115,15 +6662,18 @@
         <v>2002</v>
       </c>
       <c r="H258" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>19</v>
       </c>
       <c r="B259" t="s">
         <v>20</v>
+      </c>
+      <c r="C259" t="s">
+        <v>42</v>
       </c>
       <c r="D259" t="s">
         <v>29</v>
@@ -5132,15 +6682,18 @@
         <v>2003</v>
       </c>
       <c r="H259" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>19</v>
       </c>
       <c r="B260" t="s">
         <v>20</v>
+      </c>
+      <c r="C260" t="s">
+        <v>42</v>
       </c>
       <c r="D260" t="s">
         <v>29</v>
@@ -5149,15 +6702,18 @@
         <v>2004</v>
       </c>
       <c r="H260" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>19</v>
       </c>
       <c r="B261" t="s">
         <v>20</v>
+      </c>
+      <c r="C261" t="s">
+        <v>42</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
@@ -5166,15 +6722,18 @@
         <v>2005</v>
       </c>
       <c r="H261" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>19</v>
       </c>
       <c r="B262" t="s">
         <v>20</v>
+      </c>
+      <c r="C262" t="s">
+        <v>42</v>
       </c>
       <c r="D262" t="s">
         <v>29</v>
@@ -5183,15 +6742,18 @@
         <v>2006</v>
       </c>
       <c r="H262" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>19</v>
       </c>
       <c r="B263" t="s">
         <v>20</v>
+      </c>
+      <c r="C263" t="s">
+        <v>42</v>
       </c>
       <c r="D263" t="s">
         <v>29</v>
@@ -5200,15 +6762,18 @@
         <v>2007</v>
       </c>
       <c r="H263" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>19</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
+      </c>
+      <c r="C264" t="s">
+        <v>42</v>
       </c>
       <c r="D264" t="s">
         <v>29</v>
@@ -5217,15 +6782,18 @@
         <v>2008</v>
       </c>
       <c r="H264" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>19</v>
       </c>
       <c r="B265" t="s">
         <v>20</v>
+      </c>
+      <c r="C265" t="s">
+        <v>42</v>
       </c>
       <c r="D265" t="s">
         <v>29</v>
@@ -5234,15 +6802,18 @@
         <v>2009</v>
       </c>
       <c r="H265" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>19</v>
       </c>
       <c r="B266" t="s">
         <v>20</v>
+      </c>
+      <c r="C266" t="s">
+        <v>42</v>
       </c>
       <c r="D266" t="s">
         <v>29</v>
@@ -5251,15 +6822,18 @@
         <v>2010</v>
       </c>
       <c r="H266" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>19</v>
       </c>
       <c r="B267" t="s">
         <v>20</v>
+      </c>
+      <c r="C267" t="s">
+        <v>42</v>
       </c>
       <c r="D267" t="s">
         <v>29</v>
@@ -5268,15 +6842,18 @@
         <v>2011</v>
       </c>
       <c r="H267" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>19</v>
       </c>
       <c r="B268" t="s">
         <v>20</v>
+      </c>
+      <c r="C268" t="s">
+        <v>42</v>
       </c>
       <c r="D268" t="s">
         <v>29</v>
@@ -5285,15 +6862,18 @@
         <v>2012</v>
       </c>
       <c r="H268" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>19</v>
       </c>
       <c r="B269" t="s">
         <v>20</v>
+      </c>
+      <c r="C269" t="s">
+        <v>42</v>
       </c>
       <c r="D269" t="s">
         <v>29</v>
@@ -5302,15 +6882,18 @@
         <v>2013</v>
       </c>
       <c r="H269" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
       <c r="B270" t="s">
         <v>20</v>
+      </c>
+      <c r="C270" t="s">
+        <v>42</v>
       </c>
       <c r="D270" t="s">
         <v>29</v>
@@ -5319,15 +6902,18 @@
         <v>2014</v>
       </c>
       <c r="H270" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
       <c r="B271" t="s">
         <v>20</v>
+      </c>
+      <c r="C271" t="s">
+        <v>42</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
@@ -5336,15 +6922,18 @@
         <v>2015</v>
       </c>
       <c r="H271" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
       <c r="B272" t="s">
         <v>20</v>
+      </c>
+      <c r="C272" t="s">
+        <v>42</v>
       </c>
       <c r="D272" t="s">
         <v>29</v>
@@ -5353,15 +6942,18 @@
         <v>2016</v>
       </c>
       <c r="H272" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>19</v>
       </c>
       <c r="B273" t="s">
         <v>20</v>
+      </c>
+      <c r="C273" t="s">
+        <v>42</v>
       </c>
       <c r="D273" t="s">
         <v>29</v>
@@ -5370,15 +6962,18 @@
         <v>2017</v>
       </c>
       <c r="H273" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>19</v>
       </c>
       <c r="B274" t="s">
         <v>20</v>
+      </c>
+      <c r="C274" t="s">
+        <v>42</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
@@ -5387,15 +6982,18 @@
         <v>2018</v>
       </c>
       <c r="H274" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>
       <c r="B275" t="s">
         <v>20</v>
+      </c>
+      <c r="C275" t="s">
+        <v>42</v>
       </c>
       <c r="D275" t="s">
         <v>29</v>
@@ -5404,10 +7002,14 @@
         <v>2019</v>
       </c>
       <c r="H275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{5A66CCE5-BF26-CB4F-A150-6537F5F81F41}"/>
+    <hyperlink ref="L7:L35" r:id="rId2" display="https://www.bfe.admin.ch/bfe/de/home/versorgung/statistik-und-geodaten/energiestatistiken/gesamtenergiestatistik.html/" xr:uid="{DC108754-EA7B-9D46-B4E1-5FB128AAA88C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>